--- a/xlsx/國立國會圖書館_intext.xlsx
+++ b/xlsx/國立國會圖書館_intext.xlsx
@@ -29,7 +29,7 @@
     <t>日本</t>
   </si>
   <si>
-    <t>政策_政策_政治_國立國會圖書館</t>
+    <t>体育运动_体育运动_体育_國立國會圖書館</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
